--- a/BDA1.xlsx
+++ b/BDA1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanaka\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DF1451-B33B-456F-9BC3-C30158684488}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC89A57-F3BA-4B87-BE17-7145E3D376BC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="2" xr2:uid="{BE25A859-5680-4417-AC94-5B167E031DB2}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>2018年9月</t>
     <rPh sb="4" eb="5">
@@ -327,14 +327,6 @@
     <t>公式キャラクターとしてディアたん♡を発表しました。</t>
   </si>
   <si>
-    <t>同キャラクターによる「おみくじ」「会話」の</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Discordチャンネルを新設しました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Black Dia Coin 誕生 </t>
   </si>
   <si>
@@ -344,10 +336,316 @@
     <t>　BLACK DIA COIN が誕生しました。 　</t>
   </si>
   <si>
-    <t>　 発行枚数 １兆 枚。</t>
-  </si>
-  <si>
-    <t>　 翌日より、取引所で売買開始しました</t>
+    <t>Air Drop開始</t>
+    <rPh sb="8" eb="10">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Discordコミュニティ参加者への50万BDA配布を皮切りにAirDropをスタート。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホワイトペーパー発表・公式WEB発表</t>
+    <rPh sb="8" eb="10">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BDAプロジェクトの発表となります。</t>
+    <rPh sb="10" eb="12">
+      <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その後、ルーレット・大型プレゼント・おみくじ など、様々なイベントで AirDrop 行なっています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同キャラクターによる「おみくじ」「会話」のDiscordチャンネルを新設しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8月上旬～</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　8月中旬</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WavesからERC223へのスワップ期間</t>
+    <rPh sb="19" eb="21">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ERC223規格への変更に伴い、スワップを行います。</t>
+    <rPh sb="6" eb="8">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店を応援するコインとして、WavesからERC223規格に変更し、上場を目指します。</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オウエン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8月下旬～</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　9月上旬</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレセール期間</t>
+    <rPh sb="5" eb="7">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上場に先立って、プレセール期間を設けて、先行して販売を行います。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サキダ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9月上旬～</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　9月中旬</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取引所上場</t>
+    <rPh sb="0" eb="2">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一つ目の取引所に上場します。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここからが、本格的なBDAプロジェクトの始まりとなります。</t>
+    <rPh sb="6" eb="9">
+      <t>ホンカクテキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以降、複数取引所に上場も予定しております。</t>
+    <rPh sb="0" eb="2">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11月</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BDA専用Wallet提供</t>
+    <rPh sb="3" eb="5">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BDAを格納する、高いセキュリティを保有するWalletを提供します。</t>
+    <rPh sb="4" eb="6">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホユウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮想通貨使用可能な飲食店をオープン</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツウカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BDAで決済可能な飲食店をオープンします。</t>
+    <rPh sb="4" eb="6">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -387,46 +685,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="18"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
+      <name val="游明朝"/>
+      <family val="1"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
+      <name val="游明朝"/>
+      <family val="1"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="16"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
+      <name val="游明朝"/>
+      <family val="1"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
+      <name val="游明朝"/>
+      <family val="1"/>
       <charset val="128"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -460,7 +755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -488,20 +783,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1109,15 +1410,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>466726</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1132,8 +1433,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2628901" y="485774"/>
-          <a:ext cx="123824" cy="6962775"/>
+          <a:off x="2571750" y="466724"/>
+          <a:ext cx="209549" cy="11210926"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1179,14 +1480,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>904875</xdr:colOff>
+      <xdr:colOff>906036</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>13939</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1200,9 +1501,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="552450" y="371475"/>
-          <a:ext cx="1381125" cy="19050"/>
+        <a:xfrm>
+          <a:off x="552450" y="371940"/>
+          <a:ext cx="1385074" cy="4414"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1233,15 +1534,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
+      <xdr:colOff>1028701</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1270,8 +1571,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1943100" y="476250"/>
-          <a:ext cx="1457325" cy="1457325"/>
+          <a:off x="2057401" y="476251"/>
+          <a:ext cx="1257300" cy="1257300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1283,15 +1584,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>1028701</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>34375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>53425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1320,8 +1621,463 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1943100" y="2543175"/>
-          <a:ext cx="1457325" cy="1457325"/>
+          <a:off x="2055744" y="3446810"/>
+          <a:ext cx="1260199" cy="1269724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1019176</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>24850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>43900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F74467-2D07-4192-A7E6-567BBF2370E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2046219" y="1954698"/>
+          <a:ext cx="1260199" cy="1269724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1008918</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>446943</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3033CE-045B-4980-B8F6-AA43F4E328D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2042014" y="4957397"/>
+          <a:ext cx="1262429" cy="1249973"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1019176</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457002</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>159656</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD3906C-BE11-4EFD-B164-84057E0721C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2046219" y="7960830"/>
+          <a:ext cx="1260000" cy="1260000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1001780</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>84894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>475606</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>39112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF3F35FE-DFFE-4BD4-9C55-EDE244E9CE00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028823" y="6462503"/>
+          <a:ext cx="1296000" cy="1296000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1035327</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>140803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>472108</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2A570A-0A4B-4333-BE91-3F9D37CFA898}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2062370" y="9433890"/>
+          <a:ext cx="1258955" cy="1258955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1035328</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>509154</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>111586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99DB5E31-A754-467D-BFA2-41869ACA35D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2062371" y="10933043"/>
+          <a:ext cx="1296000" cy="1296000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>906036</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>13939</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43A8CDA-7913-4897-A878-935BC9A6AA7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="390525"/>
+          <a:ext cx="1380629" cy="4414"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1018762</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>372718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>449888</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>168279</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547E1E4D-AF9A-4262-A703-DC40A47E3A49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2045805" y="12490175"/>
+          <a:ext cx="1253300" cy="1253300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>969067</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>115958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400193</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>209693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E217C6A-0703-4BA8-99E5-F05396AEC2B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1996110" y="13923067"/>
+          <a:ext cx="1253300" cy="1253300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2055,13 +2811,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608E43C5-B638-4BDF-9258-E6B091D48F99}">
-  <dimension ref="B1:G23"/>
+  <dimension ref="B1:G50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="10"/>
     <col min="2" max="2" width="4.5" style="10" customWidth="1"/>
@@ -2082,54 +2838,172 @@
         <v>43230</v>
       </c>
       <c r="F3" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="F4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="2:7" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="F5" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F4" s="10" t="s">
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="2:7" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="G7" s="13"/>
+    </row>
+    <row r="9" spans="2:7" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="C9" s="11">
+        <v>43232</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F5" s="10" t="s">
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F6" s="10" t="s">
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G12" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="C15" s="11">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="F17" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="G18" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="G19" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="C21" s="11">
+        <v>43306</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="20" spans="3:7" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="C20" s="11">
-        <v>43252</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="G21" s="10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.4">
       <c r="G22" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.4">
       <c r="G23" s="10" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="F27" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="C28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="C29" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="C32" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="C33" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="C37" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="C38" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G39" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G40" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="C43" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G44" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.4">
+      <c r="B48" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" ht="30" x14ac:dyDescent="0.4">
+      <c r="D49" s="9"/>
+      <c r="F49" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="G50" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
